--- a/pred_ohlcv/54_21/2020-01-16 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-528024.5277</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-503460.7127</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-568063.7783</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-527493.6262000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-576462.8284</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-605549.5323</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-571205.6344</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-571205.6344</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-511493.5216</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-550668.0078</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-491223.6905</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-553459.55</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-519115.6626</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-519115.6626</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-609104.9043000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-440045.3029</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-396980.0803</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-438743.8666</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-438743.8666</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-396908.5206</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-428603.8942</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-377795.2595</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-422401.1846</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-386434.3549</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-424298.8994</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-409464.0435</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-485604.2858</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-466294.3521</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-466294.3521</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-408724.0671</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-360646.0693</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-428824.6726</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-362214.6726</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-494650.5351</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-546527.2069999999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-512171.2439999999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-552990.4415</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-577028.9121</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-765691.5098</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-693143.8125</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-365042.2571</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-421320.6316</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-468224.1712</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-502989.2112</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-457472.8811999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-423376.6427999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-488480.2332999999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-504763.0083999999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-470023.4904</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-520439.7006</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-471954.6459</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-452350.5733</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-497383.2517</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-411453.9251999999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-779979.5678999999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-734656.3372999999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-771210.5122999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-587835.9861</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-751770.7903</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-783562.1224</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-739196.4152</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-685365.9869</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-628349.8795</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-671540.9868000001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-723044.4309</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-767831.6603</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-540387.3</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-647115.0319000001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-608871.3932</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-648147.3884000001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-687272.9007000001</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-638944.0088000001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-679829.8013000001</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-613129.9323</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-613129.9323</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-613129.9323</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-655878.8641</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-595088.9533000001</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-636836.2818</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-679939.1952</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-657769.8955</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-723507.6608</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-688714.6766</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-739193.9103</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-789738.6861</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-774506.0386000001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-829530.5835000001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-786911.0427000001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-786911.0427000001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-786911.0427000001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-736620.7845000001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-794642.0766</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-794642.0766</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-830731.821</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-776419.5871</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-849965.8349</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-812147.0591</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2095092.1509</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1550476.8622</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1572458.5345</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1616572.5771</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1659855.9804</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1622903.0384</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1666980.9248</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1613354.7467</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1650827.0204</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1638419.4086</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1575895.1292</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1617672.6913</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1591338.9277</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1527723.2562</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1548886.3855</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1509166.7569</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1460259.4691</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1507414.667</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1468058.8366</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1436571.2387</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1476048.8138</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1415336.3315</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1439735.1136</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1482519.9311</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1447135.477</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1512398.7753</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1552116.1238</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1587387.4106</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1677870.0467</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1633065.4641</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1681610.5605</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1640233.3652</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1672814.3203</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1713227.6991</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1674511.6511</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1709430.3896</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1672476.5601</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1711689.9762</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1668097.0283</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1637541.2635</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1600242.6492</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1639984.9697</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1597325.117</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1544933.1325</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1593798.0399</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1570805.6272</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1534149.419</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1571770.984299999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1571770.984299999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1553082.1675</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1594332.9227</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1541479.935099999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1585677.517099999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1551534.980999999</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1585256.3203</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1553313.5102</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1612751.143</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1612751.143</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1567227.8453</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1604831.5132</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1604831.5132</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1560675.5506</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1560675.5506</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1616847.6835</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1675225.7403</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1651253.9205</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1590196.3998</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1649860.1993</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1603426.6977</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1652546.9064</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1618844.3586</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1576534.6932</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1620380.1034</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1578251.5528</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1602982.6044</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1546776.9947</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1595772.7344</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1623759.7902</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1580154.5821</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1599926.4733</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1518201.2472</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1570020.6697</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1598604.7884</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1563437.0163</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1615595.9025</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1615595.9025</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1578490.3066</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1578490.3066</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1597870.0619</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1557058.2297</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1594614.6562</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1572561.031</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1626973.6882</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1586609.6312</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1565826.6677</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1598709.6355</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1555855.9756</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1600224.4005</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1591034.1587</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1591034.1587</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1634214.5705</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1634214.5705</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1691283.1912</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1648618.2644</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1624356.7711</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1670371.8418</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1713351.7018</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1672174.0812</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1672174.0812</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1712540.7361</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1677152.0978</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1723762.1774</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1689007.8408</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1757665.2753</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1757665.2753</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1757665.2753</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1715395.2382</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1761292.3635</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1725476.9649</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1681559.9772</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1733707.9743</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1798431.4555</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1755347.1036</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1730046.7079</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1771500.2437</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1842457.2323</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1801927.1663</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1775600.5382</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1846293.262</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1812717.7484</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1770940.5453</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1823176.5826</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1805318.8269</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1847254.5009</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1804857.7117</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1804857.7117</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1757774.1023</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1802900.5645</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1783622.5447</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1772499.5447</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1778499.5447</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1777842.4357</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1777842.4357</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1777842.4357</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1783842.4357</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1779352.4357</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1850783.5997</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1836873.1378</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1880473.7685</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1943292.6528</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1943292.6528</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1879682.4156</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1922369.3987</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1961925.3748</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1921388.8309</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1880454.5027</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1919122.9545</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1875395.9934</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1875395.9934</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1832586.5382</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1876533.8607</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1912305.7523</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1873339.8931</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1918556.7004</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1894910.1256</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1936773.4638</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1900052.383</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1943995.6359</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1899585.1405</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1846513.1277</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1883623.5836</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1856503.1468</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1792761.2464</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1815030.6616</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1851443.0081</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1851443.0081</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1840878.2367</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1840878.2367</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1891850.3008</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1833473.9487</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1798889.1316</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1845720.2641</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1830584.9833</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1901449.0649</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1943830.8938</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1890588.1821</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1927599.9859</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1927599.9859</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1980267.9228</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1980267.9228</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1980267.9228</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2022484.1623</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2022484.1623</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1982677.8579</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1919580.7217</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1969864.2627</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1989993.983</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1955685.2613</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1997595.1809</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1958165.402</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2002831.6727</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1968837.6558</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1968837.6558</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1998458.684</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1980338.0426</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2023619.6392</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2023619.6392</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2069597.2404</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2069597.2404</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2002345.4619</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2046006.167399999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-3307978.7716</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3289320.563399999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3322454.5044</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3288782.872899999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3325723.159</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3366188.4643</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3330822.3987</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3303498.0467</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3241581.497</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3250601.1481</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3293790.425</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3255977.9519</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3293067.164</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3344138.1828</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3294330.602</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3252197.7564</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3289623.0627</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3271817.807899999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3321536.413299999</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3360736.004299999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3400735.312899999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3452171.627799999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3409043.8772</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3380224.334499999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3347207.2557</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3412425.995399999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3397720.9627</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3356357.035999999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3392769.571999999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3321756.814599999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3357452.682999999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3401751.267899999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3359711.514899999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3409016.224099999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3450674.176599999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3406879.707099999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3451527.277499999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3429612.766899999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3474321.320399999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3517134.025699999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3472154.249099999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3521559.672799999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-3482119.665799999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-3520337.470399999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3520337.470399999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3503177.165099999</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-3461555.104099999</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3520027.876699999</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3560151.083499998</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3560151.083499998</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3520554.375399998</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3520554.375399998</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3543900.357799998</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3507285.524699999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3539217.182099998</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3497055.549599999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3549686.303799998</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3493761.473499998</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3476904.354499999</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3428485.705299999</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3464545.364199999</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3506613.453099999</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3506613.453099999</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3533837.208399998</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3577933.785099999</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3577933.785099999</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3543626.206299999</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3588858.624099999</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3606609.326299999</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3554172.550999999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3596295.845099999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3596295.845099999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3614437.791499999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3572009.593599999</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3638922.627699999</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-3731572.015799999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3684993.506899999</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3767720.325699999</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3767720.325699999</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-4135286.918799999</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-4877667.553199999</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-4833752.507999999</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-5041134.271799999</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-5041134.271799999</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-5034660.271799999</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-5034660.271799999</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-5012686.575199999</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-4962218.772999999</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-5005610.373799999</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-4967909.855899999</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-4931015.042699999</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-4974533.121899999</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-4928583.879799998</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-5000209.571499999</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-4972633.005599999</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-5020552.781999999</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-4973385.637599999</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-5009009.893099999</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-5063232.318899999</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-5032266.416599999</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-5145617.607299999</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-5080021.381499999</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-5261586.300499999</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-5207435.085499999</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5441531.496099999</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5458694.814199999</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-5592605.280999999</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-5543454.110999999</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-6004805.691799998</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5970555.384599999</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-6034481.731199998</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-6063894.144099998</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6025411.708299998</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6067387.083599999</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6223217.311299998</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7055540.089099999</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-20001818.5368</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-20040019.015</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-19990536.0193</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-20740363.23589385</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-20842480.68419385</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-20793407.52509385</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20793407.52509385</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-20647496.29759385</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-20608067.80139386</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-20424006.06969386</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-20472646.92199386</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-19439366.42679385</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-18931695.68359385</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-18351134.78059385</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-18752672.07139385</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-18514013.80519386</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-17500045.45499386</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-17500045.45499386</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-17513840.47599386</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-18235137.12309386</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-18219395.30459386</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-18220201.41459386</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-18220201.41459386</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-18220201.41459386</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-18243102.35349386</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-18297001.75209386</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-18253370.67569386</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-18384302.21389386</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-18426875.13959386</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-18386264.21239386</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-18405175.72789386</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-18569708.13889386</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-18468458.2849485</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-18509300.4137485</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-19238348.9645485</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-19238348.9645485</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-18870341.4951485</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-18555993.54739932</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-18388496.97639932</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-17891259.55709932</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-17575421.37639932</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-18094206.65679932</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-18050982.19409933</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-17234982.61719386</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-16720826.99819386</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-16773228.53949386</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-16711282.78659386</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-16773281.85849386</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-16983708.40089386</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-17002141.03319386</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-16941772.81739387</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-16973535.41749386</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-16859413.78459387</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-16922719.94139387</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-16877470.80959387</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-16331504.99279387</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-16285398.38709387</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-16331057.65329387</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-16290330.18099387</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-16007644.69459387</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-16204753.97049387</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-16241102.64089387</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-16609734.16961797</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-16876336.41971797</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-16828895.71811797</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-16891959.40541797</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-16847492.25751797</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-16793533.21001797</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-16838842.89991797</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-16881046.82751797</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-16837492.22621797</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-16783700.24421797</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-16821653.80221796</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-16869028.92041796</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-16844264.84061797</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-16674219.24661797</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-16616163.46541797</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-16668376.87071797</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-16620756.07391797</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-16505430.81051797</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-16548502.86131797</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-16548502.86131797</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-16590681.37931797</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-16548950.43861797</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-16596128.85581796</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-16556814.55011796</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-16600047.32031796</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-16645409.40781796</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-16683356.59571796</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-16639878.27421796</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-16621777.47511796</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-16664960.58191796</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-16715875.79471796</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-16678674.52791796</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-16731741.89401796</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-16639258.15951796</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-16709830.85471796</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-16681994.58701796</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-16637322.98061796</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-16671498.68341796</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-16671498.68341796</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-16633433.69561796</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-16672676.48131796</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-16629529.55271796</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-16667938.07401796</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-16667938.07401796</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-16628476.64541796</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-16628476.64541796</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-16594990.93301796</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-16473674.41381796</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-16520067.41461796</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-16376893.99631796</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-16313722.98521796</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-16327657.63621796</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-16370837.30551796</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-16341099.52701796</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-19769912.11741796</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-19728283.21141796</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-19688378.56631796</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-19740940.19591796</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-19779121.16581796</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-19740861.57381796</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-19696186.97331796</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-19738125.33681796</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-19784929.11791796</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-19767226.44421796</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-19809215.32801796</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-19866441.38541796</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-19866441.38541796</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-20262696.64841796</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-20262696.64841796</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-20262696.64841796</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-19610194.25471796</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-19654251.05571796</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-19611213.23041796</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-19631259.32061796</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-19595408.07321796</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-18430444.57931796</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-19705037.77201796</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-18657571.78291795</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-18694650.09971795</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-18653458.33011795</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-18653458.33011795</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-18694118.22441795</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-18645866.75511795</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-18679418.67121795</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-18631904.12001795</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-18593217.12821795</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-18553296.18341795</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-18585158.73941796</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-18585158.73941796</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-18636881.09051796</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-18636881.09051796</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-18595239.25061796</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-18703988.12161796</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-18659046.63931796</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-18613204.89831796</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-18661391.19221796</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-18704812.01741796</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-18550787.28591796</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-18424165.92761796</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-18424165.92761796</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-18118534.15013979</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-18158958.34363979</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-18180383.83953979</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-18226769.77893979</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-18190479.58613979</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-18292265.63493979</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-18277271.88223979</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-18221012.97673979</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-18270679.30703979</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-18222406.62873979</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-18270443.09773979</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-18241356.81793979</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-18285943.27353979</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-18252659.46033979</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-18207559.07953979</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-18308663.89563978</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-18348767.23933978</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-18308340.73983978</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-18352923.61033978</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-18312700.22433978</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-18273759.48343978</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-18341112.57253978</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-18391117.18853978</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-18321470.41773979</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-18347409.78013979</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-18291844.89013978</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-18307617.25373979</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-18259845.49073979</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-18299165.72163979</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-18335624.54723978</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-18286568.16843978</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-18235526.17513978</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-18287150.58453979</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-18304263.53603978</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-18350287.79663979</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-18341269.39773978</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-18386156.01303978</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-18340785.89093978</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-18384332.63983978</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-18338771.36823978</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-18371323.71943978</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-18319078.57303978</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-18314324.86463978</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-18355956.14953978</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-18323512.40053978</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-18323512.40053978</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-18357410.60253978</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-18392625.49503978</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-18351482.97763978</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-17753756.17383977</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-17717079.58343977</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-17753125.12433977</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-17709037.09643978</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-17670127.02243977</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-17738521.71323977</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-17778838.35253977</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-17876513.74736657</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-17841833.62806657</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-17983028.84196657</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-17992291.79106658</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-17990331.66106658</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-17901331.66106658</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-17901334.60566658</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-17915629.42006658</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-17888480.13806657</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-18003700.17926658</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-18048589.83966658</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-18033391.40666658</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-18070330.27826658</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-18070330.27826658</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-17961786.09766658</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-17611304.39796657</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-17765972.82306657</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-17399405.78176657</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-17381885.48356657</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-17321780.23086657</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-17321780.23086657</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-17307678.66986657</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-17307678.66986657</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-17275822.64926657</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-17320432.57326657</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-17231352.91856657</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-17187298.05216657</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-17152726.77996657</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-17119721.24566657</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-17086251.29466657</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-17068131.30846656</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-17110979.52176657</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-17110979.52176657</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-17061692.44886656</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-17078418.42096657</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-17098641.20896656</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-17057166.18546657</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-17093691.05816656</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-17497710.04306656</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-17434425.81986656</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-17450183.76336656</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-17460048.77446656</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-17460048.77446656</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-17412987.96316656</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-17378116.93296656</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-17416083.98096656</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-17387983.29986656</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-17431838.36586656</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-17468682.74886656</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-17443383.70556656</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-17489395.10866656</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-17489395.10866656</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-17442389.34296656</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-17475746.96516656</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-17475746.96516656</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-17427627.03436656</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-17375074.40376656</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-17438297.99406656</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-16676129.6017381</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-16688892.20133809</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-16688892.20133809</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-16841117.42883809</v>
       </c>
       <c r="H1157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-16884638.73263809</v>
       </c>
       <c r="H1158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-16844550.53853809</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-16885498.72253809</v>
       </c>
       <c r="H1160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-16949812.0511381</v>
       </c>
       <c r="H1161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-16949812.0511381</v>
       </c>
       <c r="H1162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-16911803.2674381</v>
       </c>
       <c r="H1163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-16953043.36923809</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-16477304.97523809</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-16477304.97523809</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-16525947.00453809</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-16525947.00453809</v>
       </c>
       <c r="H1168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-16480988.77763809</v>
       </c>
       <c r="H1169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-16480988.77763809</v>
       </c>
       <c r="H1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-16446166.49253809</v>
       </c>
       <c r="H1171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-16399521.80313809</v>
       </c>
       <c r="H1172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-16399521.80313809</v>
       </c>
       <c r="H1173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-16439506.33183809</v>
       </c>
       <c r="H1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-16418877.55423809</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-16355119.95983809</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-16331465.10363809</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-16381457.16993809</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-16335618.92553809</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-16374482.41353809</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-16352880.64423809</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-16320034.11103809</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-16320034.11103809</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-16352149.32263809</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-15619729.65213809</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-15670057.07783809</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-15507068.31313809</v>
       </c>
       <c r="H1187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-15460240.56853809</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-15526262.88693809</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-15536301.71373809</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-15512464.18733809</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-15601211.70003809</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-15538204.11603809</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-15580926.39023809</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-15538664.85283809</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-15581452.45723809</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-15624310.16293809</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-15585415.63063809</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-15585415.63063809</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-15545162.53383809</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-14797946.47393809</v>
       </c>
       <c r="H1207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-528024.5277</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-503460.7127</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-568063.7783</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-527493.6262000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-576462.8284</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-605549.5323</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-571205.6344</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-571205.6344</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-511493.5216</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-550668.0078</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-491223.6905</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-553459.55</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-519115.6626</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-519115.6626</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-609104.9043000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-440045.3029</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-396980.0803</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-438743.8666</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-438743.8666</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-396908.5206</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-428603.8942</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-377795.2595</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-422401.1846</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-386434.3549</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-424298.8994</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-409464.0435</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-485604.2858</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-466294.3521</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-466294.3521</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-408724.0671</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-360646.0693</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-428824.6726</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-362214.6726</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-494650.5351</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-546527.2069999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-512171.2439999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-552990.4415</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-577028.9121</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-765691.5098</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-693143.8125</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-365042.2571</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-421320.6316</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-468224.1712</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-502989.2112</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-457472.8811999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-423376.6427999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-488480.2332999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-504763.0083999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-470023.4904</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-520439.7006</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-471954.6459</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-452350.5733</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-497383.2517</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-411453.9251999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-779979.5678999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-734656.3372999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-771210.5122999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-587835.9861</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-751770.7903</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-783562.1224</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-739196.4152</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-685365.9869</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-628349.8795</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-671540.9868000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-723044.4309</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-767831.6603</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-540387.3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-647115.0319000001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-608871.3932</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-648147.3884000001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-687272.9007000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-638944.0088000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-679829.8013000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-613129.9323</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-613129.9323</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-613129.9323</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-655878.8641</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-595088.9533000001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-636836.2818</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-679939.1952</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-657769.8955</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-723507.6608</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-688714.6766</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-739193.9103</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-789738.6861</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-774506.0386000001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-829530.5835000001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-786911.0427000001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-786911.0427000001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-786911.0427000001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-736620.7845000001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-794642.0766</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-794642.0766</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-830731.821</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-776419.5871</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-849965.8349</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-812147.0591</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2095092.1509</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1550476.8622</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1572458.5345</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1616572.5771</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1659855.9804</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1622903.0384</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1666980.9248</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1613354.7467</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1650827.0204</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1638419.4086</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1575895.1292</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1617672.6913</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1591338.9277</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1527723.2562</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1548886.3855</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1509166.7569</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1460259.4691</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1507414.667</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1468058.8366</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1436571.2387</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1476048.8138</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1415336.3315</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1439735.1136</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1482519.9311</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1447135.477</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1512398.7753</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1552116.1238</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1587387.4106</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1472856.8142</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1807856.4567</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1637860.4552</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1677870.0467</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1633065.4641</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1681610.5605</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1640233.3652</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1672814.3203</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1713227.6991</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1674511.6511</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1709430.3896</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1672476.5601</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1711689.9762</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1668097.0283</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1637541.2635</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1600242.6492</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1639984.9697</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1597325.117</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1544933.1325</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1593798.0399</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1570805.6272</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1534149.419</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1571770.984299999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1571770.984299999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1553082.1675</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1594332.9227</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1541479.935099999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1585677.517099999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1551534.980999999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1585256.3203</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1553313.5102</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1612751.143</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1612751.143</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1567227.8453</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1604831.5132</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1604831.5132</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1560675.5506</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1560675.5506</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1616847.6835</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1675225.7403</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1651253.9205</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1590196.3998</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1649860.1993</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1603426.6977</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1652546.9064</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1618844.3586</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1576534.6932</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1620380.1034</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1578251.5528</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1602982.6044</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1546776.9947</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1595772.7344</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1623759.7902</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1580154.5821</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1599926.4733</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1518201.2472</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1570020.6697</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1598604.7884</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1563437.0163</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1615595.9025</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1615595.9025</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1578490.3066</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1578490.3066</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1597870.0619</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1557058.2297</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1594614.6562</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1572561.031</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1626973.6882</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1586609.6312</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1565826.6677</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1598709.6355</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1555855.9756</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1600224.4005</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1638164.7093</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1591034.1587</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1591034.1587</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1634214.5705</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1634214.5705</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1691283.1912</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1648618.2644</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1624356.7711</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1670371.8418</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1713351.7018</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1672174.0812</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1672174.0812</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1712540.7361</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1677152.0978</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1723762.1774</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1689007.8408</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1757665.2753</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1757665.2753</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1757665.2753</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1715395.2382</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1761292.3635</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1725476.9649</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1681559.9772</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1733707.9743</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1798431.4555</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1755347.1036</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1730046.7079</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1771500.2437</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1842457.2323</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1801927.1663</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1775600.5382</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1846293.262</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1812717.7484</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1770940.5453</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1823176.5826</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1805318.8269</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1847254.5009</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1804857.7117</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1804857.7117</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1757774.1023</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1802900.5645</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1783622.5447</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1772499.5447</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1778499.5447</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1777842.4357</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1777842.4357</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1777842.4357</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1783842.4357</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1779352.4357</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1850783.5997</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1836873.1378</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1880473.7685</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1943292.6528</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1943292.6528</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1879682.4156</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1922369.3987</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1961925.3748</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1921388.8309</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1880454.5027</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1919122.9545</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1875395.9934</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1875395.9934</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1832586.5382</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1876533.8607</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1912305.7523</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1873339.8931</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1918556.7004</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1894910.1256</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1936773.4638</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1900052.383</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1943995.6359</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1899585.1405</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1846513.1277</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1883623.5836</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1856503.1468</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1792761.2464</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1815030.6616</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1851443.0081</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1851443.0081</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1840878.2367</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1840878.2367</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1891850.3008</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1833473.9487</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1798889.1316</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1845720.2641</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1830584.9833</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1901449.0649</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1943830.8938</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1890588.1821</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1927599.9859</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1927599.9859</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1980267.9228</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1980267.9228</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1980267.9228</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2022484.1623</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2022484.1623</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1982677.8579</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1919580.7217</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1969864.2627</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1989993.983</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1955685.2613</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1997595.1809</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1958165.402</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2002831.6727</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1968837.6558</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1968837.6558</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1998458.684</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1980338.0426</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2023619.6392</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2023619.6392</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2069597.2404</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2069597.2404</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2002345.4619</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2046006.167399999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-3307978.7716</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-3289320.563399999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-3322454.5044</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3288782.872899999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3325723.159</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3366188.4643</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-3330822.3987</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3303498.0467</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-3241581.497</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-3250601.1481</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-3293790.425</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-3255977.9519</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-3293067.164</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-3344138.1828</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-3294330.602</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3252197.7564</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3289623.0627</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3271817.807899999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3321536.413299999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3360736.004299999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3400735.312899999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3452171.627799999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3409043.8772</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-3380224.334499999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-3347207.2557</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-3412425.995399999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-3397720.9627</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-3356357.035999999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-3392769.571999999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-3321756.814599999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-3357452.682999999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-3401751.267899999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-3359711.514899999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-3409016.224099999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-3450674.176599999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-3406879.707099999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-3451527.277499999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-3429612.766899999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-3474321.320399999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-3517134.025699999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3472154.249099999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-3521559.672799999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-3482119.665799999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-3520337.470399999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-3520337.470399999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-3503177.165099999</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-3461555.104099999</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-3520027.876699999</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-3560151.083499998</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-3560151.083499998</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-3520554.375399998</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-3520554.375399998</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-3543900.357799998</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-3507285.524699999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-3539217.182099998</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-3497055.549599999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-3549686.303799998</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-3493761.473499998</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-3476904.354499999</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-3428485.705299999</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-3464545.364199999</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-3506613.453099999</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-3506613.453099999</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3533837.208399998</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-3577933.785099999</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3577933.785099999</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-3543626.206299999</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-3588858.624099999</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-3606609.326299999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-3554172.550999999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-3596295.845099999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3596295.845099999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3614437.791499999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-3572009.593599999</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-3638922.627699999</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-3731572.015799999</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-3684993.506899999</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-3767720.325699999</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-3767720.325699999</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-4135286.918799999</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-4877667.553199999</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-4833752.507999999</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-5041134.271799999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-5041134.271799999</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-5034660.271799999</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-4962218.772999999</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-5005610.373799999</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-4967909.855899999</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-4931015.042699999</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-4974533.121899999</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-4928583.879799998</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-5000209.571499999</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-4972633.005599999</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-5020552.781999999</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-4973385.637599999</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-5009009.893099999</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-5063232.318899999</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-5032266.416599999</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5084464.291499999</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-5145617.607299999</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-5080021.381499999</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-5261586.300499999</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-5207435.085499999</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-5441531.496099999</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-5458694.814199999</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-5592605.280999999</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-5543454.110999999</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-6004805.691799998</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5970555.384599999</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-6034481.731199998</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-6063894.144099998</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6025411.708299998</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6067387.083599999</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6223217.311299998</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-7055540.089099999</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-7594164.485099998</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-8651591.645899998</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-20001818.5368</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-20040019.015</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-19990536.0193</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-20097194.9543</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-20160140.4141</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-20132313.4267</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-20305017.838</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-20252617.1217</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-20213597.1719</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-20256008.3649</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-20339006.0503</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-20108528.2638</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-20004215.74479385</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-19966833.66829385</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-19899931.29869385</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-19882930.69949385</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-19976698.13729385</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-19999200.77379385</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-20032432.43569385</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-20217066.37549385</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-20757275.42329385</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-20789445.53849385</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-20740363.23589385</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-20842480.68419385</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-20793407.52509385</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20793407.52509385</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-20647496.29759385</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-20608067.80139386</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-20552559.80139386</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-20424006.06969386</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-20472646.92199386</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-19439366.42679385</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-18931695.68359385</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-18752672.07139385</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-18903730.24429385</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-18863889.82419385</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-18863889.82419385</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-18863889.82419385</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-18863889.82419385</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-18863889.82419385</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-18551759.41549385</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-18569737.36319385</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-18514013.80519386</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-17881568.02059386</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-17706193.47579386</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-17500045.45499386</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-17500045.45499386</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-17500045.45499386</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-17500045.45499386</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-17513840.47599386</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-18235137.12309386</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-18219395.30459386</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-18220201.41459386</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-18220201.41459386</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-18220201.41459386</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-18243102.35349386</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-18297001.75209386</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-18253370.67569386</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-18384302.21389386</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-18426875.13959386</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-18386264.21239386</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-18405175.72789386</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-18569708.13889386</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-18468458.2849485</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-18509300.4137485</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-19238348.9645485</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-19238348.9645485</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-18870341.4951485</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-18555993.54739932</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-18388496.97639932</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-17891259.55709932</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-17575421.37639932</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-18094206.65679932</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-18050982.19409933</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-17234982.61719386</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-16720826.99819386</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-16773228.53949386</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-16711282.78659386</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-16773281.85849386</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-16983708.40089386</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-17002141.03319386</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-16941772.81739387</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-16973535.41749386</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-16859413.78459387</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-16922719.94139387</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-16877470.80959387</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-16331504.99279387</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-16285398.38709387</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-16331057.65329387</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-16290330.18099387</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-16007644.69459387</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-16204753.97049387</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-16241102.64089387</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-16609734.16961797</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-16876336.41971797</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-16828895.71811797</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-16891959.40541797</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-16847492.25751797</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-16793533.21001797</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-16838842.89991797</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-16881046.82751797</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-16837492.22621797</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-16783700.24421797</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-16821653.80221796</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-16869028.92041796</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-16844264.84061797</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-16674219.24661797</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-16616163.46541797</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-16668376.87071797</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-16620756.07391797</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-16505430.81051797</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-16548502.86131797</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-16548502.86131797</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-16590681.37931797</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-16548950.43861797</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-16596128.85581796</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-16556814.55011796</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-16600047.32031796</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-16645409.40781796</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-16683356.59571796</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-16639878.27421796</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-16621777.47511796</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-16664960.58191796</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-16715875.79471796</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-16678674.52791796</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-16731741.89401796</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-16639258.15951796</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-16709830.85471796</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-16681994.58701796</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-16637322.98061796</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-16671498.68341796</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-16671498.68341796</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-16633433.69561796</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-16672676.48131796</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-16629529.55271796</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-16667938.07401796</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-16667938.07401796</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-16628476.64541796</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-16628476.64541796</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-16594990.93301796</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-16473674.41381796</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-16520067.41461796</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-16376893.99631796</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-16313722.98521796</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-16327657.63621796</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-16370837.30551796</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-16341099.52701796</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-19769912.11741796</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-19728283.21141796</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-19688378.56631796</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-19740940.19591796</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-19779121.16581796</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-19740861.57381796</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-19696186.97331796</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-19738125.33681796</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-19784929.11791796</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-19767226.44421796</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-19809215.32801796</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-19866441.38541796</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-19866441.38541796</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-20262696.64841796</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-20262696.64841796</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-20262696.64841796</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-19610194.25471796</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-19654251.05571796</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-19611213.23041796</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-19631259.32061796</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-19595408.07321796</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-18430444.57931796</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-19705037.77201796</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-18657571.78291795</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-18694650.09971795</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-18653458.33011795</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-18653458.33011795</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-18694118.22441795</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-18645866.75511795</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-18679418.67121795</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-18631904.12001795</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-18593217.12821795</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-18553296.18341795</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-18585158.73941796</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-18585158.73941796</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-18636881.09051796</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-18636881.09051796</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-18595239.25061796</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-18703988.12161796</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-18659046.63931796</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-18613204.89831796</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-18661391.19221796</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-18704812.01741796</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-18550787.28591796</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-18424165.92761796</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-18424165.92761796</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-18118534.15013979</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-18158958.34363979</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-18180383.83953979</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-18226769.77893979</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-18190502.01963979</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-18224464.85993979</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-18190479.58613979</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-18292265.63493979</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-18277271.88223979</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-18221012.97673979</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-18270679.30703979</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-18222406.62873979</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-18270443.09773979</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-18241356.81793979</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-18285943.27353979</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-18252659.46033979</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-18207559.07953979</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-18241672.80303979</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-18266333.75593979</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-18228261.02113979</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-18263959.94843978</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-18308663.89563978</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-18348767.23933978</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-18308340.73983978</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-18352923.61033978</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-18312700.22433978</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-18273759.48343978</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-18341112.57253978</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-18391117.18853978</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-18321470.41773979</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-18347409.78013979</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-18291844.89013978</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-18307617.25373979</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-18259845.49073979</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-18299165.72163979</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-18335624.54723978</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-18286568.16843978</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-18235526.17513978</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-18287150.58453979</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-18304263.53603978</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-18350287.79663979</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-18341269.39773978</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-18386156.01303978</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-18340785.89093978</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-18384332.63983978</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-18338771.36823978</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-18371323.71943978</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-18319078.57303978</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-18314324.86463978</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-18355956.14953978</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-18323512.40053978</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-18323512.40053978</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-18357410.60253978</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-18392625.49503978</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-18351482.97763978</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-17753756.17383977</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-17717079.58343977</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-17753125.12433977</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-17709037.09643978</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-17670127.02243977</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-17807866.24213977</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-17702872.19443977</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-17762690.94233977</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-17738521.71323977</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-17778838.35253977</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-17778838.35253977</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-17717942.37736658</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-17717942.37736658</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-17717942.37736658</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-17800965.03876658</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-17755516.80986658</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-17755516.80986658</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-17733042.23946658</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-17781433.64166658</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-17917065.64166658</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-17917065.64166658</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-17917065.64166658</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-17911065.64166658</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-17911065.64166658</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-17911065.64166658</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-17749287.98736658</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-17782778.98926657</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-17782778.98926657</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-17846954.89946657</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-17876513.74736657</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-17841833.62806657</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-17901094.78176657</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-17847344.83936657</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-17887477.45966657</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-17931140.33886657</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-17890240.68926657</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-17953267.70646657</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-17983028.84196657</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-17946834.99766658</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-17992291.79106658</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-17990331.66106658</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-17901331.66106658</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-17901334.60566658</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-17915629.42006658</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-17888480.13806657</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-18003700.17926658</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-18048589.83966658</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-18033391.40666658</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-18070330.27826658</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-18070330.27826658</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-17961786.09766658</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-17611304.39796657</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-17652821.46566657</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-17615652.34436657</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-17576052.48276657</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-17529615.35746657</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-17529615.35746657</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-17565317.34356657</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-17565317.34356657</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-17495052.62896657</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-17510153.58646657</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-17557282.12696657</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-17594101.62146657</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-17594101.62146657</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-17617862.93376657</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-17663507.72456657</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-17713205.16256657</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-17701205.16256657</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-17701205.16256657</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-17506606.67186657</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-17536262.79266657</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-17577003.64906657</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-17577003.64906657</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-17631811.05886658</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-17600098.46876657</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-17656093.79306657</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-17656093.79306657</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-17619150.86166657</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-17581308.94086657</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-17514249.64276657</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-17537110.40376657</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-17465125.67396657</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-17506351.51136657</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-17621788.17046657</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-17579710.52586657</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-17747314.13976657</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-17711873.24886657</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-17723489.61166657</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-17681560.46396657</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-17655782.84136657</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-17771452.77666657</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-17701797.82676657</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-17741642.14136656</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-17791239.98906656</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-17742048.51276656</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-17772960.79476656</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-17731192.34086657</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-17765972.82306657</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-17746604.20886657</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-17819927.28696657</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-17795709.87736657</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-17760287.36796657</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-17810753.96806657</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-17759162.56356657</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-17741933.31006657</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-17783801.68956657</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-17825202.21526657</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-17788247.49436657</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-17751380.87966657</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-17900644.10246657</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-17854021.10236657</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-17906495.05026657</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-17289602.94556657</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-17328294.23086657</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-17375162.94616657</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-17308226.47466657</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-17374589.52556657</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-17336703.99886657</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-17366529.16746657</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-17331019.16266657</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-17380003.94496657</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-17329407.67716657</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-17399405.78176657</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-17381885.48356657</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-17321780.23086657</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-17321780.23086657</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-17358857.82306657</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-17403921.08666657</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-17360897.28356657</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-17389410.88426657</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-17328265.76716657</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-17287887.99346657</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-17333280.31186657</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-17306863.04206657</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-17344989.44546657</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-17293985.49956657</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-17328564.31326657</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-17290294.82716657</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-17324976.94686657</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-17306230.22346657</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-17264754.70496657</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-17307678.66986657</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-17307678.66986657</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-17275822.64926657</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-17320432.57326657</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-17231352.91856657</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-17187298.05216657</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-17152726.77996657</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-17119721.24566657</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-17086251.29466657</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-17110365.04066657</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-17068131.30846656</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-17110979.52176657</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-17110979.52176657</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-17061692.44886656</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-17078418.42096657</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-17139866.72996657</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-17098641.20896656</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-17057166.18546657</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-17093691.05816656</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-17051503.13406656</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-17089493.16076656</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-17112928.57186656</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-17045789.51906656</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-16998675.11066657</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-17041161.05136656</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-17074671.50776656</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-17057189.94986656</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-17094363.04976656</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-17059934.81346656</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-17106560.83286656</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-17066862.49306656</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-16959632.78656656</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-16959632.78656656</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-16959632.78656656</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-17009085.06886656</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-17048951.00846656</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-17006126.01356656</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-17049884.81976656</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-17009908.06956656</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-17027514.13516656</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-17082344.03576656</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-17041590.33966656</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-17077308.89566657</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-17029635.55126657</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-17076781.05376657</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-17032440.90536657</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-17073188.36136657</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-17028714.06416656</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-17080274.60506656</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-17035968.42936656</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-17069712.03266656</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-17012972.61256656</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-17060115.92926656</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-17042023.24036656</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-17075490.28256656</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-17122472.69876656</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-17085800.33716656</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-17054448.06556656</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-17103824.92186656</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-17103824.92186656</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-17064005.63896656</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-17201506.76206656</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-17226875.76206656</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-17226875.76206656</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-17256059.58946656</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-17291951.47666656</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-17269652.48356656</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-17302925.78356656</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-17264496.11656656</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-17304937.23306657</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-17304677.00066657</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-17304677.00066657</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-17348872.25826656</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-17301100.83576657</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-17301100.83576657</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-17306700.83576657</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-17276507.66996656</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-17276507.66996656</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-17276507.66996656</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-17276507.66996656</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-17276507.66996656</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-17357905.89186656</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-17445492.28546656</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-17497710.04306656</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-17434425.81986656</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-17450183.76336656</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-17374166.99176656</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-17324143.98296656</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-17412846.46866656</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-17460048.77446656</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-17460048.77446656</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-17412987.96316656</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-17378116.93296656</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-17416083.98096656</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-17387983.29986656</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-17431838.36586656</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-17468682.74886656</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-17443383.70556656</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-17489395.10866656</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-17489395.10866656</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-17442389.34296656</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-17475746.96516656</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-17475746.96516656</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-17427627.03436656</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-17375074.40376656</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-17411332.70416656</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-17453360.05736656</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-17438297.99406656</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-17397840.19366656</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-17436641.07366656</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-17399865.67056656</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-17459710.34946656</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-17362022.21626656</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-17415046.58646656</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-17360528.69616656</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-17402796.73846656</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-17498548.92076657</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-17450036.48746657</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-17483774.62686657</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-17618174.66386657</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-17618174.66386657</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-17581925.98586657</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-17555988.46406657</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-17590460.08936657</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-17550664.91256657</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-17510356.49136657</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-17510356.49136657</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-17558368.73686657</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-17614475.02356657</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-17659615.13176657</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-17681691.58626657</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-17793564.69636657</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-17554131.75696657</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-17618997.29966657</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-17583650.59856657</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-17541071.02276657</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-17541071.02276657</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-17482064.89436657</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-17005253.84046657</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-17069258.19326657</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-17109605.93176657</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-17109605.93176657</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-17066101.60536657</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-16860751.79456656</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-16649912.93796656</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-16757520.53906656</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-16706540.87586656</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-16721793.81646656</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-16681912.77396656</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-16720101.46366656</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-16747682.76006656</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-16747682.76006656</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-16707736.95536656</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-16748769.51636656</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-16748769.51636656</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-16713368.41676656</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-16713368.41676656</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-16713368.41676656</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-16713368.41676656</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-16883997.35546656</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-16863826.60666656</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-16816023.23836657</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-16860219.33686657</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-16860219.33686657</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-17019693.51156656</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-16726653.37106656</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>-16673784.8250381</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-16721902.6958381</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-16676129.6017381</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>-16676129.6017381</v>
       </c>
       <c r="H1145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>-16721429.88613809</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>-16688892.20133809</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-16688892.20133809</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-16688892.20133809</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-16688892.20133809</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-16738725.26313809</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-16841117.42883809</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>-16884638.73263809</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-16844550.53853809</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-16885498.72253809</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>-16949812.0511381</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>-16949812.0511381</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-16911803.2674381</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-16953043.36923809</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-16477304.97523809</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-16477304.97523809</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-16525947.00453809</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-16525947.00453809</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-16480988.77763809</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-16480988.77763809</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-16446166.49253809</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-16399521.80313809</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-16399521.80313809</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-16439506.33183809</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-16418877.55423809</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-16355119.95983809</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-16331465.10363809</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-16381457.16993809</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-16335618.92553809</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-16374482.41353809</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-16352880.64423809</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-16320034.11103809</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-16320034.11103809</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-16352149.32263809</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-15619729.65213809</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-15670057.07783809</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-15507068.31313809</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-15460240.56853809</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-15526262.88693809</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-15577508.68573809</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-15536301.71373809</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-15512464.18733809</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-15567807.55293809</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-15601211.70003809</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-15538204.11603809</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-15580926.39023809</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-15538664.85283809</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-15581452.45723809</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-15624310.16293809</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-15585415.63063809</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-15585415.63063809</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-15545162.53383809</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-15423636.35233809</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-14939077.00193809</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-14823962.97623809</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-14855842.31663809</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-14797946.47393809</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-14847655.10533809</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
